--- a/public/excel/SUMMARY_TEMPLATE.xlsx
+++ b/public/excel/SUMMARY_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\projects\qrcode-tracker\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F727869-619E-4284-8BAA-4855C7537565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC6A41C-C2FB-4EBB-9BDE-1A71C1C6DBFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{73DADEC1-6CF2-4CD0-A71F-0005749F04E8}"/>
   </bookViews>
@@ -132,10 +132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +455,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,53 +471,68 @@
     <col min="9" max="9" width="27.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="B1:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/excel/SUMMARY_TEMPLATE.xlsx
+++ b/public/excel/SUMMARY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\projects\qrcode-tracker\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC6A41C-C2FB-4EBB-9BDE-1A71C1C6DBFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4F2261-768C-4D79-BCE1-7F47CB49A89C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{73DADEC1-6CF2-4CD0-A71F-0005749F04E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NAME OF PATIENT/CLIENT</t>
   </si>
@@ -48,13 +48,16 @@
     <t>DATE/TIME REQUESTED</t>
   </si>
   <si>
-    <t>REGISTRY NO.</t>
-  </si>
-  <si>
     <t>DATE/TIME FINISHED</t>
   </si>
   <si>
     <t>SUMMARY REPORT FOR THE MONTH OF AUGUST 2023</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CERTIFICATE NO.</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD32DF-6080-46E5-B378-8462C0AACEFA}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,11 +472,12 @@
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -482,7 +486,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -491,7 +495,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -500,7 +504,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,13 +527,16 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>8</v>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H3"/>

--- a/public/excel/SUMMARY_TEMPLATE.xlsx
+++ b/public/excel/SUMMARY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\projects\qrcode-tracker\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4F2261-768C-4D79-BCE1-7F47CB49A89C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B9C5A-195E-4572-950A-43CFA89F8553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{73DADEC1-6CF2-4CD0-A71F-0005749F04E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NAME OF PATIENT/CLIENT</t>
   </si>
@@ -33,9 +33,6 @@
     <t>DOCUMENT REQUESTED</t>
   </si>
   <si>
-    <t>CHARGE SLIP NO.</t>
-  </si>
-  <si>
     <t>OR NO.</t>
   </si>
   <si>
@@ -45,19 +42,37 @@
     <t>RELATIONSHIP</t>
   </si>
   <si>
-    <t>DATE/TIME REQUESTED</t>
-  </si>
-  <si>
-    <t>DATE/TIME FINISHED</t>
-  </si>
-  <si>
     <t>SUMMARY REPORT FOR THE MONTH OF AUGUST 2023</t>
   </si>
   <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>CERTIFICATE NO.</t>
+    <t>CS NO.</t>
+  </si>
+  <si>
+    <t>PREPARED BY</t>
+  </si>
+  <si>
+    <t>DATE &amp; TIME COMPLETED</t>
+  </si>
+  <si>
+    <t>DATE &amp; TIME REQUESTED</t>
+  </si>
+  <si>
+    <t>CERT NO.</t>
+  </si>
+  <si>
+    <t>DATE &amp; TIME RELEASED</t>
+  </si>
+  <si>
+    <t>DATE &amp; TIME FINISHED</t>
+  </si>
+  <si>
+    <t>RECEIVED BY</t>
+  </si>
+  <si>
+    <t>RELEASED BY</t>
   </si>
 </sst>
 </file>
@@ -455,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD32DF-6080-46E5-B378-8462C0AACEFA}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,18 +481,18 @@
     <col min="1" max="1" width="35.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="4" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="28" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="27.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -485,8 +500,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -494,8 +513,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -503,8 +526,12 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,34 +539,49 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="B1:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/excel/SUMMARY_TEMPLATE.xlsx
+++ b/public/excel/SUMMARY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\projects\qrcode-tracker\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B9C5A-195E-4572-950A-43CFA89F8553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D649F6C-5CF6-48BE-92B5-ABC0A00B39D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{73DADEC1-6CF2-4CD0-A71F-0005749F04E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NAME OF PATIENT/CLIENT</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>DATE &amp; TIME RELEASED</t>
-  </si>
-  <si>
-    <t>DATE &amp; TIME FINISHED</t>
   </si>
   <si>
     <t>RECEIVED BY</t>
@@ -470,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD32DF-6080-46E5-B378-8462C0AACEFA}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,13 +481,13 @@
     <col min="4" max="6" width="18.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="28" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="27.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="9" max="10" width="28" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="27.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
@@ -503,9 +500,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -516,9 +512,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -529,9 +524,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -563,25 +557,22 @@
         <v>9</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L3"/>
+    <mergeCell ref="B1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/excel/SUMMARY_TEMPLATE.xlsx
+++ b/public/excel/SUMMARY_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\projects\qrcode-tracker\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D649F6C-5CF6-48BE-92B5-ABC0A00B39D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D507504-8837-4C9E-978C-558CDFB36FB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{73DADEC1-6CF2-4CD0-A71F-0005749F04E8}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>RECEIVED BY</t>
   </si>
   <si>
-    <t>RELEASED BY</t>
+    <t>RELEASED/CANCELLED BY</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/excel/SUMMARY_TEMPLATE.xlsx
+++ b/public/excel/SUMMARY_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\projects\qrcode-tracker\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D507504-8837-4C9E-978C-558CDFB36FB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7946FF86-0C1B-42C0-83AF-45247129F79D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{73DADEC1-6CF2-4CD0-A71F-0005749F04E8}"/>
   </bookViews>
@@ -467,32 +467,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD32DF-6080-46E5-B378-8462C0AACEFA}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="28" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="27.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -502,8 +504,6 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -514,8 +514,6 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -527,37 +525,37 @@
     </row>
     <row r="6" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>12</v>
@@ -570,9 +568,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8"/>
+      <c r="N8" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="D1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
